--- a/DoThiThaoUyen_Test01-result.xlsx
+++ b/DoThiThaoUyen_Test01-result.xlsx
@@ -214,6 +214,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,33 +249,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +528,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -540,12 +540,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.15" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -557,18 +557,18 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -577,23 +577,23 @@
       <c r="C3" s="2">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2">
@@ -602,30 +602,30 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2">
@@ -634,7 +634,7 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="47.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -643,7 +643,7 @@
       <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2">
@@ -652,30 +652,30 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="63">
-      <c r="A8" s="7"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="37.15" customHeight="1">
-      <c r="A9" s="7"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="2">
@@ -684,14 +684,14 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="79.150000000000006" customHeight="1">
-      <c r="A10" s="7"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2">
@@ -700,14 +700,14 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
+      <c r="A11" s="16"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2">
@@ -725,7 +725,7 @@
       <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="2">
@@ -734,15 +734,16 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="16">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="13">
         <f>SUM(C3:C12)</f>
         <v>100</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>85</v>
+        <f>SUM(E3:E12)</f>
+        <v>80</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -754,6 +755,7 @@
     <mergeCell ref="A7:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
